--- a/medicine/Pharmacie/Adalimumab/Adalimumab.xlsx
+++ b/medicine/Pharmacie/Adalimumab/Adalimumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'adalimumab est un anticorps monoclonal thérapeutique, commercialisé depuis 2003 sous divers noms.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'indique son suffixe -mumab, l'adalimumab est un anticorps intégralement humain (fully human), capable de lier le tumor necrosis factor alpha (TNF-α), ou facteur de nécrose tumorale α. En se complexant avec cette cytokine pro-inflammatoire, il empêche son interaction avec son récepteur, et module ainsi les processus inflammatoires TNF-α dépendants.
 </t>
@@ -543,15 +557,17 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polyarthrite rhumatoïde de l'adulte dans ses formes résistantes[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyarthrite rhumatoïde de l'adulte dans ses formes résistantes
 Rhumatisme psoriasique de l'adulte
 Maladie de Crohn
 Rectocolite hémorragique (RCH) ou colite ulcéreuse
 Spondylarthrite ankylosante
-Psoriasis en plaques chez l'adulte[3]
-Il est également testé avec un certain succès dans l'hidrosadénite suppurée[4].
+Psoriasis en plaques chez l'adulte
+Il est également testé avec un certain succès dans l'hidrosadénite suppurée.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Solution pour injection sous-cutanée, bimensuelle ou hebdomadaire.
 </t>
@@ -611,10 +629,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les effets secondaires graves, des atteintes cutanées tels qu'un érythème polymorphe ou un syndrome de Stevens-Johnson, ont été notifiés à la FDA pour l'adalimumab[5].
-L'utilisation prolongée de ce médicament peut conduire à la formation d'anticorps dirigé contre ce dernier, diminuant le taux sanguin de celui-ci et son efficacité[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les effets secondaires graves, des atteintes cutanées tels qu'un érythème polymorphe ou un syndrome de Stevens-Johnson, ont été notifiés à la FDA pour l'adalimumab.
+L'utilisation prolongée de ce médicament peut conduire à la formation d'anticorps dirigé contre ce dernier, diminuant le taux sanguin de celui-ci et son efficacité.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Marché</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adalimumab serait la première molécule médicamenteuse vendue, en termes de valeur, en 2012, avec un chiffre projeté de 9,3 milliards de dollars[7]. Elle est distribuée par AbbVie sous le nom Humira, et par Amgen sous la marque Amgevita. De nombreux biosimilaires sont maintenant disponibles et commercialisés sous divers noms.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adalimumab serait la première molécule médicamenteuse vendue, en termes de valeur, en 2012, avec un chiffre projeté de 9,3 milliards de dollars. Elle est distribuée par AbbVie sous le nom Humira, et par Amgen sous la marque Amgevita. De nombreux biosimilaires sont maintenant disponibles et commercialisés sous divers noms.
 </t>
         </is>
       </c>
